--- a/Features.xlsx
+++ b/Features.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thean\OneDrive\Documents\1. Uni Work\HPR\[UNAMED] Flight Computer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angus McLennan\Documents\1. Uni Work\HPR\Strelka-Flight-Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6AC77E-9D2A-4D91-8BF5-33697176D944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F1719C-412D-4A70-9A52-0C6EA3C3F9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Features" sheetId="1" r:id="rId1"/>
     <sheet name="Continuity Testing" sheetId="3" r:id="rId2"/>
     <sheet name="MCU Selection" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Feature</t>
   </si>
@@ -35,12 +35,6 @@
     <t>USB</t>
   </si>
   <si>
-    <t>Boost buck converter</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
     <t>LVCO</t>
   </si>
   <si>
@@ -123,6 +117,21 @@
   </si>
   <si>
     <t>1uA-10mA output, High side config</t>
+  </si>
+  <si>
+    <t>Boost converter</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>FP6276BXR-G1</t>
+  </si>
+  <si>
+    <t>Brownout protection</t>
   </si>
 </sst>
 </file>
@@ -181,10 +190,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -576,67 +585,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D6:E13"/>
+  <dimension ref="D6:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="4" t="s">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1" display="https://www.lcsc.com/product-detail/DC-DC-Converters_Feeling-Tech-FP6276BXR-G1_C82652.html" xr:uid="{418809BE-9E1A-43CE-B1B9-88F7BB1C22EB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -645,44 +669,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67645060-C236-49E1-8241-5946E5E4B1EE}">
   <dimension ref="D4:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="4" t="s">
+    <row r="4" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -699,36 +723,36 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
       <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
       <c r="K6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="6:19" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <v>84</v>
@@ -740,15 +764,15 @@
         <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K7">
         <v>5.4587000000000003</v>
       </c>
     </row>
-    <row r="8" spans="6:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="6:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>168</v>
@@ -760,25 +784,25 @@
         <v>192</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K8">
         <v>15</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="L8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>180</v>
@@ -790,23 +814,23 @@
         <v>128</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K9">
         <v>14.154</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>64</v>
@@ -818,7 +842,7 @@
         <v>256</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K10">
         <v>10.61</v>
@@ -828,7 +852,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="6:19" x14ac:dyDescent="0.3">
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
